--- a/ReservoirDesignPlatform/生产/生产制度模块.xlsx
+++ b/ReservoirDesignPlatform/生产/生产制度模块.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EC21D6-180D-4C20-BBCE-8C513D94F386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E6769B-2014-4434-BB68-AE613EAFA148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WELSPECS" sheetId="2" r:id="rId1"/>
@@ -13,8 +13,19 @@
     <sheet name="WCONINJE" sheetId="4" r:id="rId3"/>
     <sheet name="WCONPROD" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -1059,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1965,7 +1976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
@@ -2943,7 +2954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
@@ -4453,7 +4464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
